--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.398486</v>
+        <v>15.9821925</v>
       </c>
       <c r="H2">
-        <v>48.796972</v>
+        <v>31.964385</v>
       </c>
       <c r="I2">
-        <v>0.4878637722507928</v>
+        <v>0.790742371417803</v>
       </c>
       <c r="J2">
-        <v>0.3884708362220679</v>
+        <v>0.7176090436508664</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.6124065</v>
+        <v>21.970574</v>
       </c>
       <c r="N2">
-        <v>33.224813</v>
+        <v>43.941148</v>
       </c>
       <c r="O2">
-        <v>0.4620374562419557</v>
+        <v>0.7244366878413139</v>
       </c>
       <c r="P2">
-        <v>0.3753617403199085</v>
+        <v>0.669009081233668</v>
       </c>
       <c r="Q2">
-        <v>405.3175674165589</v>
+        <v>351.137943003495</v>
       </c>
       <c r="R2">
-        <v>1621.270269666236</v>
+        <v>1404.55177201398</v>
       </c>
       <c r="S2">
-        <v>0.2254113363233611</v>
+        <v>0.5728427844856993</v>
       </c>
       <c r="T2">
-        <v>0.1458170891478455</v>
+        <v>0.4800869669778373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.398486</v>
+        <v>15.9821925</v>
       </c>
       <c r="H3">
-        <v>48.796972</v>
+        <v>31.964385</v>
       </c>
       <c r="I3">
-        <v>0.4878637722507928</v>
+        <v>0.790742371417803</v>
       </c>
       <c r="J3">
-        <v>0.3884708362220679</v>
+        <v>0.7176090436508664</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.741764</v>
       </c>
       <c r="O3">
-        <v>0.1181280233058613</v>
+        <v>0.140044912032729</v>
       </c>
       <c r="P3">
-        <v>0.1439517721224062</v>
+        <v>0.1939948366150158</v>
       </c>
       <c r="Q3">
-        <v>103.6265835231013</v>
+        <v>67.88044167919</v>
       </c>
       <c r="R3">
-        <v>621.7595011386079</v>
+        <v>407.28265007514</v>
       </c>
       <c r="S3">
-        <v>0.05763038305852709</v>
+        <v>0.1107394458457578</v>
       </c>
       <c r="T3">
-        <v>0.05592106529203969</v>
+        <v>0.1392124491765075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.398486</v>
+        <v>15.9821925</v>
       </c>
       <c r="H4">
-        <v>48.796972</v>
+        <v>31.964385</v>
       </c>
       <c r="I4">
-        <v>0.4878637722507928</v>
+        <v>0.790742371417803</v>
       </c>
       <c r="J4">
-        <v>0.3884708362220679</v>
+        <v>0.7176090436508664</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3122576666666667</v>
+        <v>0.2329406666666667</v>
       </c>
       <c r="N4">
-        <v>0.9367730000000001</v>
+        <v>0.6988220000000001</v>
       </c>
       <c r="O4">
-        <v>0.008684758466433821</v>
+        <v>0.007680762688473572</v>
       </c>
       <c r="P4">
-        <v>0.01058331746110058</v>
+        <v>0.01063964610496463</v>
       </c>
       <c r="Q4">
-        <v>7.618614308559334</v>
+        <v>3.722902575745</v>
       </c>
       <c r="R4">
-        <v>45.711685851356</v>
+        <v>22.33741545447</v>
       </c>
       <c r="S4">
-        <v>0.004236979026521414</v>
+        <v>0.006073504502580973</v>
       </c>
       <c r="T4">
-        <v>0.004111310184117356</v>
+        <v>0.007635106266167336</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.398486</v>
+        <v>15.9821925</v>
       </c>
       <c r="H5">
-        <v>48.796972</v>
+        <v>31.964385</v>
       </c>
       <c r="I5">
-        <v>0.4878637722507928</v>
+        <v>0.790742371417803</v>
       </c>
       <c r="J5">
-        <v>0.3884708362220679</v>
+        <v>0.7176090436508664</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.737501</v>
+        <v>3.3318945</v>
       </c>
       <c r="N5">
-        <v>5.475002</v>
+        <v>6.663789</v>
       </c>
       <c r="O5">
-        <v>0.07613755409246759</v>
+        <v>0.1098627016215731</v>
       </c>
       <c r="P5">
-        <v>0.06185456270212807</v>
+        <v>0.1014569613981188</v>
       </c>
       <c r="Q5">
-        <v>66.79087982348599</v>
+        <v>53.25097928869125</v>
       </c>
       <c r="R5">
-        <v>267.163519293944</v>
+        <v>213.003917154765</v>
       </c>
       <c r="S5">
-        <v>0.03714475434950002</v>
+        <v>0.08687309321060918</v>
       </c>
       <c r="T5">
-        <v>0.02402869369704602</v>
+        <v>0.07280643304062687</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.398486</v>
+        <v>15.9821925</v>
       </c>
       <c r="H6">
-        <v>48.796972</v>
+        <v>31.964385</v>
       </c>
       <c r="I6">
-        <v>0.4878637722507928</v>
+        <v>0.790742371417803</v>
       </c>
       <c r="J6">
-        <v>0.3884708362220679</v>
+        <v>0.7176090436508664</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.91861833333333</v>
+        <v>0.399603</v>
       </c>
       <c r="N6">
-        <v>35.755855</v>
+        <v>1.198809</v>
       </c>
       <c r="O6">
-        <v>0.3314900882453166</v>
+        <v>0.01317612702205471</v>
       </c>
       <c r="P6">
-        <v>0.4039565236808497</v>
+        <v>0.01825200624400283</v>
       </c>
       <c r="Q6">
-        <v>290.7962425451767</v>
+        <v>6.3865320695775</v>
       </c>
       <c r="R6">
-        <v>1744.77745527106</v>
+        <v>38.319192417465</v>
       </c>
       <c r="S6">
-        <v>0.1617220049151084</v>
+        <v>0.01041892192752173</v>
       </c>
       <c r="T6">
-        <v>0.1569253285516592</v>
+        <v>0.01309780474546851</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.398486</v>
+        <v>15.9821925</v>
       </c>
       <c r="H7">
-        <v>48.796972</v>
+        <v>31.964385</v>
       </c>
       <c r="I7">
-        <v>0.4878637722507928</v>
+        <v>0.790742371417803</v>
       </c>
       <c r="J7">
-        <v>0.3884708362220679</v>
+        <v>0.7176090436508664</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1266366666666666</v>
+        <v>0.1455373333333333</v>
       </c>
       <c r="N7">
-        <v>0.37991</v>
+        <v>0.436612</v>
       </c>
       <c r="O7">
-        <v>0.003522119647964738</v>
+        <v>0.004798808793855693</v>
       </c>
       <c r="P7">
-        <v>0.004292083713606949</v>
+        <v>0.00664746840423</v>
       </c>
       <c r="Q7">
-        <v>3.089742938753333</v>
+        <v>2.32600567727</v>
       </c>
       <c r="R7">
-        <v>18.53845763252</v>
+        <v>13.95603406362</v>
       </c>
       <c r="S7">
-        <v>0.001718314577774712</v>
+        <v>0.003794621445634058</v>
       </c>
       <c r="T7">
-        <v>0.00166734934936001</v>
+        <v>0.004770283444258842</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.348156333333333</v>
+        <v>1.348156333333334</v>
       </c>
       <c r="H8">
-        <v>4.044468999999999</v>
+        <v>4.044469</v>
       </c>
       <c r="I8">
-        <v>0.02695727244566721</v>
+        <v>0.06670200825462028</v>
       </c>
       <c r="J8">
-        <v>0.03219786372204059</v>
+        <v>0.09079941726285602</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.6124065</v>
+        <v>21.970574</v>
       </c>
       <c r="N8">
-        <v>33.224813</v>
+        <v>43.941148</v>
       </c>
       <c r="O8">
-        <v>0.4620374562419557</v>
+        <v>0.7244366878413139</v>
       </c>
       <c r="P8">
-        <v>0.3753617403199085</v>
+        <v>0.669009081233668</v>
       </c>
       <c r="Q8">
-        <v>22.39612103488283</v>
+        <v>29.61976848506867</v>
       </c>
       <c r="R8">
-        <v>134.376726209297</v>
+        <v>177.718610910412</v>
       </c>
       <c r="S8">
-        <v>0.01245526958801744</v>
+        <v>0.04832138193234109</v>
       </c>
       <c r="T8">
-        <v>0.0120858461612884</v>
+        <v>0.06074563471957576</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.348156333333333</v>
+        <v>1.348156333333334</v>
       </c>
       <c r="H9">
-        <v>4.044468999999999</v>
+        <v>4.044469</v>
       </c>
       <c r="I9">
-        <v>0.02695727244566721</v>
+        <v>0.06670200825462028</v>
       </c>
       <c r="J9">
-        <v>0.03219786372204059</v>
+        <v>0.09079941726285602</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>12.741764</v>
       </c>
       <c r="O9">
-        <v>0.1181280233058613</v>
+        <v>0.140044912032729</v>
       </c>
       <c r="P9">
-        <v>0.1439517721224062</v>
+        <v>0.1939948366150158</v>
       </c>
       <c r="Q9">
-        <v>5.725963278146221</v>
+        <v>5.725963278146223</v>
       </c>
       <c r="R9">
-        <v>51.53366950331599</v>
+        <v>51.53366950331601</v>
       </c>
       <c r="S9">
-        <v>0.00318440930772423</v>
+        <v>0.009341276878424662</v>
       </c>
       <c r="T9">
-        <v>0.004634939541343476</v>
+        <v>0.0176146181166464</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.348156333333333</v>
+        <v>1.348156333333334</v>
       </c>
       <c r="H10">
-        <v>4.044468999999999</v>
+        <v>4.044469</v>
       </c>
       <c r="I10">
-        <v>0.02695727244566721</v>
+        <v>0.06670200825462028</v>
       </c>
       <c r="J10">
-        <v>0.03219786372204059</v>
+        <v>0.09079941726285602</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.3122576666666667</v>
+        <v>0.2329406666666667</v>
       </c>
       <c r="N10">
-        <v>0.9367730000000001</v>
+        <v>0.6988220000000001</v>
       </c>
       <c r="O10">
-        <v>0.008684758466433821</v>
+        <v>0.007680762688473572</v>
       </c>
       <c r="P10">
-        <v>0.01058331746110058</v>
+        <v>0.01063964610496463</v>
       </c>
       <c r="Q10">
-        <v>0.4209721509485556</v>
+        <v>0.3140404350575556</v>
       </c>
       <c r="R10">
-        <v>3.788749358537</v>
+        <v>2.826363915518</v>
       </c>
       <c r="S10">
-        <v>0.0002341174001044714</v>
+        <v>0.0005123222962483436</v>
       </c>
       <c r="T10">
-        <v>0.0003407602133396092</v>
+        <v>0.0009660736662138044</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.348156333333333</v>
+        <v>1.348156333333334</v>
       </c>
       <c r="H11">
-        <v>4.044468999999999</v>
+        <v>4.044469</v>
       </c>
       <c r="I11">
-        <v>0.02695727244566721</v>
+        <v>0.06670200825462028</v>
       </c>
       <c r="J11">
-        <v>0.03219786372204059</v>
+        <v>0.09079941726285602</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.737501</v>
+        <v>3.3318945</v>
       </c>
       <c r="N11">
-        <v>5.475002</v>
+        <v>6.663789</v>
       </c>
       <c r="O11">
-        <v>0.07613755409246759</v>
+        <v>0.1098627016215731</v>
       </c>
       <c r="P11">
-        <v>0.06185456270212807</v>
+        <v>0.1014569613981188</v>
       </c>
       <c r="Q11">
-        <v>3.690579310656333</v>
+        <v>4.4919146721735</v>
       </c>
       <c r="R11">
-        <v>22.143475863938</v>
+        <v>26.951488033041</v>
       </c>
       <c r="S11">
-        <v>0.002052460789017373</v>
+        <v>0.00732806283043705</v>
       </c>
       <c r="T11">
-        <v>0.001991584780469534</v>
+        <v>0.009212232972209262</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.348156333333333</v>
+        <v>1.348156333333334</v>
       </c>
       <c r="H12">
-        <v>4.044468999999999</v>
+        <v>4.044469</v>
       </c>
       <c r="I12">
-        <v>0.02695727244566721</v>
+        <v>0.06670200825462028</v>
       </c>
       <c r="J12">
-        <v>0.03219786372204059</v>
+        <v>0.09079941726285602</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.91861833333333</v>
+        <v>0.399603</v>
       </c>
       <c r="N12">
-        <v>35.755855</v>
+        <v>1.198809</v>
       </c>
       <c r="O12">
-        <v>0.3314900882453166</v>
+        <v>0.01317612702205471</v>
       </c>
       <c r="P12">
-        <v>0.4039565236808497</v>
+        <v>0.01825200624400283</v>
       </c>
       <c r="Q12">
-        <v>16.06816079066611</v>
+        <v>0.5387273152690001</v>
       </c>
       <c r="R12">
-        <v>144.613447115995</v>
+        <v>4.848545837421001</v>
       </c>
       <c r="S12">
-        <v>0.008936068621867264</v>
+        <v>0.0008788741333890183</v>
       </c>
       <c r="T12">
-        <v>0.01300653709910526</v>
+        <v>0.001657271530833466</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.348156333333333</v>
+        <v>1.348156333333334</v>
       </c>
       <c r="H13">
-        <v>4.044468999999999</v>
+        <v>4.044469</v>
       </c>
       <c r="I13">
-        <v>0.02695727244566721</v>
+        <v>0.06670200825462028</v>
       </c>
       <c r="J13">
-        <v>0.03219786372204059</v>
+        <v>0.09079941726285602</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1266366666666666</v>
+        <v>0.1455373333333333</v>
       </c>
       <c r="N13">
-        <v>0.37991</v>
+        <v>0.436612</v>
       </c>
       <c r="O13">
-        <v>0.003522119647964738</v>
+        <v>0.004798808793855693</v>
       </c>
       <c r="P13">
-        <v>0.004292083713606949</v>
+        <v>0.00664746840423</v>
       </c>
       <c r="Q13">
-        <v>0.1707260241988888</v>
+        <v>0.1962070776697778</v>
       </c>
       <c r="R13">
-        <v>1.53653421779</v>
+        <v>1.765863699028</v>
       </c>
       <c r="S13">
-        <v>9.494673893642294E-05</v>
+        <v>0.0003200901837801068</v>
       </c>
       <c r="T13">
-        <v>0.0001381959264943064</v>
+        <v>0.0006035862573773315</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.451834333333333</v>
+        <v>1.508377</v>
       </c>
       <c r="H14">
-        <v>4.355503</v>
+        <v>4.525131</v>
       </c>
       <c r="I14">
-        <v>0.02903038223532456</v>
+        <v>0.07462916029650322</v>
       </c>
       <c r="J14">
-        <v>0.03467399355389767</v>
+        <v>0.1015904084907277</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.6124065</v>
+        <v>21.970574</v>
       </c>
       <c r="N14">
-        <v>33.224813</v>
+        <v>43.941148</v>
       </c>
       <c r="O14">
-        <v>0.4620374562419557</v>
+        <v>0.7244366878413139</v>
       </c>
       <c r="P14">
-        <v>0.3753617403199085</v>
+        <v>0.669009081233668</v>
       </c>
       <c r="Q14">
-        <v>24.11846211598983</v>
+        <v>33.139908498398</v>
       </c>
       <c r="R14">
-        <v>144.710772695939</v>
+        <v>198.839450990388</v>
       </c>
       <c r="S14">
-        <v>0.01341312396174102</v>
+        <v>0.05406410170157728</v>
       </c>
       <c r="T14">
-        <v>0.01301529056423232</v>
+        <v>0.06796490584653475</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.451834333333333</v>
+        <v>1.508377</v>
       </c>
       <c r="H15">
-        <v>4.355503</v>
+        <v>4.525131</v>
       </c>
       <c r="I15">
-        <v>0.02903038223532456</v>
+        <v>0.07462916029650322</v>
       </c>
       <c r="J15">
-        <v>0.03467399355389767</v>
+        <v>0.1015904084907277</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.741764</v>
       </c>
       <c r="O15">
-        <v>0.1181280233058613</v>
+        <v>0.140044912032729</v>
       </c>
       <c r="P15">
-        <v>0.1439517721224062</v>
+        <v>0.1939948366150158</v>
       </c>
       <c r="Q15">
-        <v>6.166310147476889</v>
+        <v>6.406461252342667</v>
       </c>
       <c r="R15">
-        <v>55.49679132729199</v>
+        <v>57.658151271084</v>
       </c>
       <c r="S15">
-        <v>0.003429301669272483</v>
+        <v>0.01045143418880023</v>
       </c>
       <c r="T15">
-        <v>0.004991382818644459</v>
+        <v>0.01970801469681143</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.451834333333333</v>
+        <v>1.508377</v>
       </c>
       <c r="H16">
-        <v>4.355503</v>
+        <v>4.525131</v>
       </c>
       <c r="I16">
-        <v>0.02903038223532456</v>
+        <v>0.07462916029650322</v>
       </c>
       <c r="J16">
-        <v>0.03467399355389767</v>
+        <v>0.1015904084907277</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3122576666666667</v>
+        <v>0.2329406666666667</v>
       </c>
       <c r="N16">
-        <v>0.9367730000000001</v>
+        <v>0.6988220000000001</v>
       </c>
       <c r="O16">
-        <v>0.008684758466433821</v>
+        <v>0.007680762688473572</v>
       </c>
       <c r="P16">
-        <v>0.01058331746110058</v>
+        <v>0.01063964610496463</v>
       </c>
       <c r="Q16">
-        <v>0.4533464013132222</v>
+        <v>0.3513623439646667</v>
       </c>
       <c r="R16">
-        <v>4.080117611819</v>
+        <v>3.162261095682</v>
       </c>
       <c r="S16">
-        <v>0.0002521218579020449</v>
+        <v>0.0005732088698774953</v>
       </c>
       <c r="T16">
-        <v>0.0003669658814250543</v>
+        <v>0.001080885994000137</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.451834333333333</v>
+        <v>1.508377</v>
       </c>
       <c r="H17">
-        <v>4.355503</v>
+        <v>4.525131</v>
       </c>
       <c r="I17">
-        <v>0.02903038223532456</v>
+        <v>0.07462916029650322</v>
       </c>
       <c r="J17">
-        <v>0.03467399355389767</v>
+        <v>0.1015904084907277</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.737501</v>
+        <v>3.3318945</v>
       </c>
       <c r="N17">
-        <v>5.475002</v>
+        <v>6.663789</v>
       </c>
       <c r="O17">
-        <v>0.07613755409246759</v>
+        <v>0.1098627016215731</v>
       </c>
       <c r="P17">
-        <v>0.06185456270212807</v>
+        <v>0.1014569613981188</v>
       </c>
       <c r="Q17">
-        <v>3.974397939334333</v>
+        <v>5.0257530302265</v>
       </c>
       <c r="R17">
-        <v>23.846387636006</v>
+        <v>30.154518181359</v>
       </c>
       <c r="S17">
-        <v>0.002210302297767033</v>
+        <v>0.00819896116992328</v>
       </c>
       <c r="T17">
-        <v>0.002144744708412748</v>
+        <v>0.01030705415266287</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.451834333333333</v>
+        <v>1.508377</v>
       </c>
       <c r="H18">
-        <v>4.355503</v>
+        <v>4.525131</v>
       </c>
       <c r="I18">
-        <v>0.02903038223532456</v>
+        <v>0.07462916029650322</v>
       </c>
       <c r="J18">
-        <v>0.03467399355389767</v>
+        <v>0.1015904084907277</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.91861833333333</v>
+        <v>0.399603</v>
       </c>
       <c r="N18">
-        <v>35.755855</v>
+        <v>1.198809</v>
       </c>
       <c r="O18">
-        <v>0.3314900882453166</v>
+        <v>0.01317612702205471</v>
       </c>
       <c r="P18">
-        <v>0.4039565236808497</v>
+        <v>0.01825200624400283</v>
       </c>
       <c r="Q18">
-        <v>17.30385930222944</v>
+        <v>0.602751974331</v>
       </c>
       <c r="R18">
-        <v>155.734733720065</v>
+        <v>5.424767768979</v>
       </c>
       <c r="S18">
-        <v>0.009623283968983008</v>
+        <v>0.0009833232956160084</v>
       </c>
       <c r="T18">
-        <v>0.01400678589816469</v>
+        <v>0.00185422877010356</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.451834333333333</v>
+        <v>1.508377</v>
       </c>
       <c r="H19">
-        <v>4.355503</v>
+        <v>4.525131</v>
       </c>
       <c r="I19">
-        <v>0.02903038223532456</v>
+        <v>0.07462916029650322</v>
       </c>
       <c r="J19">
-        <v>0.03467399355389767</v>
+        <v>0.1015904084907277</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1266366666666666</v>
+        <v>0.1455373333333333</v>
       </c>
       <c r="N19">
-        <v>0.37991</v>
+        <v>0.436612</v>
       </c>
       <c r="O19">
-        <v>0.003522119647964738</v>
+        <v>0.004798808793855693</v>
       </c>
       <c r="P19">
-        <v>0.004292083713606949</v>
+        <v>0.00664746840423</v>
       </c>
       <c r="Q19">
-        <v>0.1838554605255555</v>
+        <v>0.2195251662413333</v>
       </c>
       <c r="R19">
-        <v>1.65469914473</v>
+        <v>1.975726496172</v>
       </c>
       <c r="S19">
-        <v>0.0001022484796589631</v>
+        <v>0.0003581310707089258</v>
       </c>
       <c r="T19">
-        <v>0.0001488236830183965</v>
+        <v>0.0006753190306149315</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.021128</v>
+        <v>0.1098025</v>
       </c>
       <c r="H20">
-        <v>0.042256</v>
+        <v>0.219605</v>
       </c>
       <c r="I20">
-        <v>0.0004224682539775112</v>
+        <v>0.005432639435271682</v>
       </c>
       <c r="J20">
-        <v>0.0003363984071675534</v>
+        <v>0.00493019133735714</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.6124065</v>
+        <v>21.970574</v>
       </c>
       <c r="N20">
-        <v>33.224813</v>
+        <v>43.941148</v>
       </c>
       <c r="O20">
-        <v>0.4620374562419557</v>
+        <v>0.7244366878413139</v>
       </c>
       <c r="P20">
-        <v>0.3753617403199085</v>
+        <v>0.669009081233668</v>
       </c>
       <c r="Q20">
-        <v>0.350986924532</v>
+        <v>2.412423951635</v>
       </c>
       <c r="R20">
-        <v>1.403947698128</v>
+        <v>9.649695806539999</v>
       </c>
       <c r="S20">
-        <v>0.0001951961574107498</v>
+        <v>0.003935603318724323</v>
       </c>
       <c r="T20">
-        <v>0.000126271091555258</v>
+        <v>0.003298342776911489</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.021128</v>
+        <v>0.1098025</v>
       </c>
       <c r="H21">
-        <v>0.042256</v>
+        <v>0.219605</v>
       </c>
       <c r="I21">
-        <v>0.0004224682539775112</v>
+        <v>0.005432639435271682</v>
       </c>
       <c r="J21">
-        <v>0.0003363984071675534</v>
+        <v>0.00493019133735714</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.741764</v>
       </c>
       <c r="O21">
-        <v>0.1181280233058613</v>
+        <v>0.140044912032729</v>
       </c>
       <c r="P21">
-        <v>0.1439517721224062</v>
+        <v>0.1939948366150158</v>
       </c>
       <c r="Q21">
-        <v>0.08973599659733333</v>
+        <v>0.4663591805366666</v>
       </c>
       <c r="R21">
-        <v>0.538415979584</v>
+        <v>2.79815508322</v>
       </c>
       <c r="S21">
-        <v>4.990533975184199E-05</v>
+        <v>0.0007608135118181575</v>
       </c>
       <c r="T21">
-        <v>4.842514685092406E-05</v>
+        <v>0.0009564316629713644</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.021128</v>
+        <v>0.1098025</v>
       </c>
       <c r="H22">
-        <v>0.042256</v>
+        <v>0.219605</v>
       </c>
       <c r="I22">
-        <v>0.0004224682539775112</v>
+        <v>0.005432639435271682</v>
       </c>
       <c r="J22">
-        <v>0.0003363984071675534</v>
+        <v>0.00493019133735714</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.3122576666666667</v>
+        <v>0.2329406666666667</v>
       </c>
       <c r="N22">
-        <v>0.9367730000000001</v>
+        <v>0.6988220000000001</v>
       </c>
       <c r="O22">
-        <v>0.008684758466433821</v>
+        <v>0.007680762688473572</v>
       </c>
       <c r="P22">
-        <v>0.01058331746110058</v>
+        <v>0.01063964610496463</v>
       </c>
       <c r="Q22">
-        <v>0.006597379981333334</v>
+        <v>0.02557746755166667</v>
       </c>
       <c r="R22">
-        <v>0.03958427988800001</v>
+        <v>0.15346480531</v>
       </c>
       <c r="S22">
-        <v>3.669034745530704E-06</v>
+        <v>4.172681427436487E-05</v>
       </c>
       <c r="T22">
-        <v>3.560211136462792E-06</v>
+        <v>5.245549105924227E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.021128</v>
+        <v>0.1098025</v>
       </c>
       <c r="H23">
-        <v>0.042256</v>
+        <v>0.219605</v>
       </c>
       <c r="I23">
-        <v>0.0004224682539775112</v>
+        <v>0.005432639435271682</v>
       </c>
       <c r="J23">
-        <v>0.0003363984071675534</v>
+        <v>0.00493019133735714</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.737501</v>
+        <v>3.3318945</v>
       </c>
       <c r="N23">
-        <v>5.475002</v>
+        <v>6.663789</v>
       </c>
       <c r="O23">
-        <v>0.07613755409246759</v>
+        <v>0.1098627016215731</v>
       </c>
       <c r="P23">
-        <v>0.06185456270212807</v>
+        <v>0.1014569613981188</v>
       </c>
       <c r="Q23">
-        <v>0.057837921128</v>
+        <v>0.36585034583625</v>
       </c>
       <c r="R23">
-        <v>0.231351684512</v>
+        <v>1.463401383345</v>
       </c>
       <c r="S23">
-        <v>3.216569953956309E-05</v>
+        <v>0.0005968444452948439</v>
       </c>
       <c r="T23">
-        <v>2.080777636904144E-05</v>
+        <v>0.0005002022321995829</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.021128</v>
+        <v>0.1098025</v>
       </c>
       <c r="H24">
-        <v>0.042256</v>
+        <v>0.219605</v>
       </c>
       <c r="I24">
-        <v>0.0004224682539775112</v>
+        <v>0.005432639435271682</v>
       </c>
       <c r="J24">
-        <v>0.0003363984071675534</v>
+        <v>0.00493019133735714</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.91861833333333</v>
+        <v>0.399603</v>
       </c>
       <c r="N24">
-        <v>35.755855</v>
+        <v>1.198809</v>
       </c>
       <c r="O24">
-        <v>0.3314900882453166</v>
+        <v>0.01317612702205471</v>
       </c>
       <c r="P24">
-        <v>0.4039565236808497</v>
+        <v>0.01825200624400283</v>
       </c>
       <c r="Q24">
-        <v>0.2518165681466666</v>
+        <v>0.0438774084075</v>
       </c>
       <c r="R24">
-        <v>1.51089940888</v>
+        <v>0.263264450445</v>
       </c>
       <c r="S24">
-        <v>0.00014004403879185</v>
+        <v>7.158114726416323E-05</v>
       </c>
       <c r="T24">
-        <v>0.0001358903311311799</v>
+        <v>8.998588307357118E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.021128</v>
+        <v>0.1098025</v>
       </c>
       <c r="H25">
-        <v>0.042256</v>
+        <v>0.219605</v>
       </c>
       <c r="I25">
-        <v>0.0004224682539775112</v>
+        <v>0.005432639435271682</v>
       </c>
       <c r="J25">
-        <v>0.0003363984071675534</v>
+        <v>0.00493019133735714</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1266366666666666</v>
+        <v>0.1455373333333333</v>
       </c>
       <c r="N25">
-        <v>0.37991</v>
+        <v>0.436612</v>
       </c>
       <c r="O25">
-        <v>0.003522119647964738</v>
+        <v>0.004798808793855693</v>
       </c>
       <c r="P25">
-        <v>0.004292083713606949</v>
+        <v>0.00664746840423</v>
       </c>
       <c r="Q25">
-        <v>0.002675579493333333</v>
+        <v>0.01598036304333333</v>
       </c>
       <c r="R25">
-        <v>0.01605347696</v>
+        <v>0.09588217825999999</v>
       </c>
       <c r="S25">
-        <v>1.487983737975549E-06</v>
+        <v>2.607019789582897E-05</v>
       </c>
       <c r="T25">
-        <v>1.443850124687175E-06</v>
+        <v>3.277329114189004E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.234617</v>
+        <v>0.573084</v>
       </c>
       <c r="H26">
-        <v>57.703851</v>
+        <v>1.719252</v>
       </c>
       <c r="I26">
-        <v>0.3846088157855052</v>
+        <v>0.02835416987885738</v>
       </c>
       <c r="J26">
-        <v>0.4593781608252989</v>
+        <v>0.03859766998535524</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.6124065</v>
+        <v>21.970574</v>
       </c>
       <c r="N26">
-        <v>33.224813</v>
+        <v>43.941148</v>
       </c>
       <c r="O26">
-        <v>0.4620374562419557</v>
+        <v>0.7244366878413139</v>
       </c>
       <c r="P26">
-        <v>0.3753617403199085</v>
+        <v>0.669009081233668</v>
       </c>
       <c r="Q26">
-        <v>319.5332764758105</v>
+        <v>12.590984430216</v>
       </c>
       <c r="R26">
-        <v>1917.199658854863</v>
+        <v>75.54590658129599</v>
       </c>
       <c r="S26">
-        <v>0.1777036788937658</v>
+        <v>0.02054080091352939</v>
       </c>
       <c r="T26">
-        <v>0.172432985912343</v>
+        <v>0.02582219173466284</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>19.234617</v>
+        <v>0.573084</v>
       </c>
       <c r="H27">
-        <v>57.703851</v>
+        <v>1.719252</v>
       </c>
       <c r="I27">
-        <v>0.3846088157855052</v>
+        <v>0.02835416987885738</v>
       </c>
       <c r="J27">
-        <v>0.4593781608252989</v>
+        <v>0.03859766998535524</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>12.741764</v>
       </c>
       <c r="O27">
-        <v>0.1181280233058613</v>
+        <v>0.140044912032729</v>
       </c>
       <c r="P27">
-        <v>0.1439517721224062</v>
+        <v>0.1939948366150158</v>
       </c>
       <c r="Q27">
-        <v>81.694316814796</v>
+        <v>2.434033693392</v>
       </c>
       <c r="R27">
-        <v>735.248851333164</v>
+        <v>21.906303240528</v>
       </c>
       <c r="S27">
-        <v>0.04543307915474989</v>
+        <v>0.003970857226445637</v>
       </c>
       <c r="T27">
-        <v>0.0661283003251335</v>
+        <v>0.007487748682529288</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>19.234617</v>
+        <v>0.573084</v>
       </c>
       <c r="H28">
-        <v>57.703851</v>
+        <v>1.719252</v>
       </c>
       <c r="I28">
-        <v>0.3846088157855052</v>
+        <v>0.02835416987885738</v>
       </c>
       <c r="J28">
-        <v>0.4593781608252989</v>
+        <v>0.03859766998535524</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.3122576666666667</v>
+        <v>0.2329406666666667</v>
       </c>
       <c r="N28">
-        <v>0.9367730000000001</v>
+        <v>0.6988220000000001</v>
       </c>
       <c r="O28">
-        <v>0.008684758466433821</v>
+        <v>0.007680762688473572</v>
       </c>
       <c r="P28">
-        <v>0.01058331746110058</v>
+        <v>0.01063964610496463</v>
       </c>
       <c r="Q28">
-        <v>6.006156623647001</v>
+        <v>0.133494569016</v>
       </c>
       <c r="R28">
-        <v>54.05540961282301</v>
+        <v>1.201451121144</v>
       </c>
       <c r="S28">
-        <v>0.003340234669158252</v>
+        <v>0.000217781650068169</v>
       </c>
       <c r="T28">
-        <v>0.004861744910710659</v>
+        <v>0.0004106655491203952</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>19.234617</v>
+        <v>0.573084</v>
       </c>
       <c r="H29">
-        <v>57.703851</v>
+        <v>1.719252</v>
       </c>
       <c r="I29">
-        <v>0.3846088157855052</v>
+        <v>0.02835416987885738</v>
       </c>
       <c r="J29">
-        <v>0.4593781608252989</v>
+        <v>0.03859766998535524</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.737501</v>
+        <v>3.3318945</v>
       </c>
       <c r="N29">
-        <v>5.475002</v>
+        <v>6.663789</v>
       </c>
       <c r="O29">
-        <v>0.07613755409246759</v>
+        <v>0.1098627016215731</v>
       </c>
       <c r="P29">
-        <v>0.06185456270212807</v>
+        <v>0.1014569613981188</v>
       </c>
       <c r="Q29">
-        <v>52.654783272117</v>
+        <v>1.909455427638</v>
       </c>
       <c r="R29">
-        <v>315.928699632702</v>
+        <v>11.456732565828</v>
       </c>
       <c r="S29">
-        <v>0.0292831745163088</v>
+        <v>0.003115065705128302</v>
       </c>
       <c r="T29">
-        <v>0.02841463525275672</v>
+        <v>0.003916002313761514</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>19.234617</v>
+        <v>0.573084</v>
       </c>
       <c r="H30">
-        <v>57.703851</v>
+        <v>1.719252</v>
       </c>
       <c r="I30">
-        <v>0.3846088157855052</v>
+        <v>0.02835416987885738</v>
       </c>
       <c r="J30">
-        <v>0.4593781608252989</v>
+        <v>0.03859766998535524</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.91861833333333</v>
+        <v>0.399603</v>
       </c>
       <c r="N30">
-        <v>35.755855</v>
+        <v>1.198809</v>
       </c>
       <c r="O30">
-        <v>0.3314900882453166</v>
+        <v>0.01317612702205471</v>
       </c>
       <c r="P30">
-        <v>0.4039565236808497</v>
+        <v>0.01825200624400283</v>
       </c>
       <c r="Q30">
-        <v>229.250058810845</v>
+        <v>0.229006085652</v>
       </c>
       <c r="R30">
-        <v>2063.250529297605</v>
+        <v>2.061054770868</v>
       </c>
       <c r="S30">
-        <v>0.1274940102846638</v>
+        <v>0.0003735981439287423</v>
       </c>
       <c r="T30">
-        <v>0.18556880490189</v>
+        <v>0.0007044849135766645</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>19.234617</v>
+        <v>0.573084</v>
       </c>
       <c r="H31">
-        <v>57.703851</v>
+        <v>1.719252</v>
       </c>
       <c r="I31">
-        <v>0.3846088157855052</v>
+        <v>0.02835416987885738</v>
       </c>
       <c r="J31">
-        <v>0.4593781608252989</v>
+        <v>0.03859766998535524</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.1266366666666666</v>
+        <v>0.1455373333333333</v>
       </c>
       <c r="N31">
-        <v>0.37991</v>
+        <v>0.436612</v>
       </c>
       <c r="O31">
-        <v>0.003522119647964738</v>
+        <v>0.004798808793855693</v>
       </c>
       <c r="P31">
-        <v>0.004292083713606949</v>
+        <v>0.00664746840423</v>
       </c>
       <c r="Q31">
-        <v>2.435807781489999</v>
+        <v>0.083405117136</v>
       </c>
       <c r="R31">
-        <v>21.92227003341</v>
+        <v>0.750646054224</v>
       </c>
       <c r="S31">
-        <v>0.001354638266858579</v>
+        <v>0.000136066239757139</v>
       </c>
       <c r="T31">
-        <v>0.001971689522464979</v>
+        <v>0.0002565767917045456</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.556636666666666</v>
+        <v>0.6900180000000001</v>
       </c>
       <c r="H32">
-        <v>10.66991</v>
+        <v>2.070054</v>
       </c>
       <c r="I32">
-        <v>0.07111728902873259</v>
+        <v>0.03413965071694448</v>
       </c>
       <c r="J32">
-        <v>0.08494274726952739</v>
+        <v>0.04647326927283759</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>16.6124065</v>
+        <v>21.970574</v>
       </c>
       <c r="N32">
-        <v>33.224813</v>
+        <v>43.941148</v>
       </c>
       <c r="O32">
-        <v>0.4620374562419557</v>
+        <v>0.7244366878413139</v>
       </c>
       <c r="P32">
-        <v>0.3753617403199085</v>
+        <v>0.669009081233668</v>
       </c>
       <c r="Q32">
-        <v>59.08429407947166</v>
+        <v>15.160091530332</v>
       </c>
       <c r="R32">
-        <v>354.5057644768299</v>
+        <v>90.96054918199201</v>
       </c>
       <c r="S32">
-        <v>0.03285885131765955</v>
+        <v>0.0247320154894426</v>
       </c>
       <c r="T32">
-        <v>0.03188425744264396</v>
+        <v>0.03109103917814593</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.556636666666666</v>
+        <v>0.6900180000000001</v>
       </c>
       <c r="H33">
-        <v>10.66991</v>
+        <v>2.070054</v>
       </c>
       <c r="I33">
-        <v>0.07111728902873259</v>
+        <v>0.03413965071694448</v>
       </c>
       <c r="J33">
-        <v>0.08494274726952739</v>
+        <v>0.04647326927283759</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>12.741764</v>
       </c>
       <c r="O33">
-        <v>0.1181280233058613</v>
+        <v>0.140044912032729</v>
       </c>
       <c r="P33">
-        <v>0.1439517721224062</v>
+        <v>0.1939948366150158</v>
       </c>
       <c r="Q33">
-        <v>15.10594168013778</v>
+        <v>2.930682170584001</v>
       </c>
       <c r="R33">
-        <v>135.95347512124</v>
+        <v>26.37613953525601</v>
       </c>
       <c r="S33">
-        <v>0.008400944775835801</v>
+        <v>0.004781084381482585</v>
       </c>
       <c r="T33">
-        <v>0.01222765899839415</v>
+        <v>0.00901557427954976</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.556636666666666</v>
+        <v>0.6900180000000001</v>
       </c>
       <c r="H34">
-        <v>10.66991</v>
+        <v>2.070054</v>
       </c>
       <c r="I34">
-        <v>0.07111728902873259</v>
+        <v>0.03413965071694448</v>
       </c>
       <c r="J34">
-        <v>0.08494274726952739</v>
+        <v>0.04647326927283759</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.3122576666666667</v>
+        <v>0.2329406666666667</v>
       </c>
       <c r="N34">
-        <v>0.9367730000000001</v>
+        <v>0.6988220000000001</v>
       </c>
       <c r="O34">
-        <v>0.008684758466433821</v>
+        <v>0.007680762688473572</v>
       </c>
       <c r="P34">
-        <v>0.01058331746110058</v>
+        <v>0.01063964610496463</v>
       </c>
       <c r="Q34">
-        <v>1.110587066714445</v>
+        <v>0.1607332529320001</v>
       </c>
       <c r="R34">
-        <v>9.995283600430001</v>
+        <v>1.446599276388</v>
       </c>
       <c r="S34">
-        <v>0.0006176364780021064</v>
+        <v>0.0002622185554242272</v>
       </c>
       <c r="T34">
-        <v>0.0008989760603714432</v>
+        <v>0.000494459138403719</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.556636666666666</v>
+        <v>0.6900180000000001</v>
       </c>
       <c r="H35">
-        <v>10.66991</v>
+        <v>2.070054</v>
       </c>
       <c r="I35">
-        <v>0.07111728902873259</v>
+        <v>0.03413965071694448</v>
       </c>
       <c r="J35">
-        <v>0.08494274726952739</v>
+        <v>0.04647326927283759</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.737501</v>
+        <v>3.3318945</v>
       </c>
       <c r="N35">
-        <v>5.475002</v>
+        <v>6.663789</v>
       </c>
       <c r="O35">
-        <v>0.07613755409246759</v>
+        <v>0.1098627016215731</v>
       </c>
       <c r="P35">
-        <v>0.06185456270212807</v>
+        <v>0.1014569613981188</v>
       </c>
       <c r="Q35">
-        <v>9.736296431636665</v>
+        <v>2.299067179101</v>
       </c>
       <c r="R35">
-        <v>58.41777858982</v>
+        <v>13.794403074606</v>
       </c>
       <c r="S35">
-        <v>0.005414696440334779</v>
+        <v>0.003750674260180394</v>
       </c>
       <c r="T35">
-        <v>0.005254096487073999</v>
+        <v>0.004715036686658662</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.556636666666666</v>
+        <v>0.6900180000000001</v>
       </c>
       <c r="H36">
-        <v>10.66991</v>
+        <v>2.070054</v>
       </c>
       <c r="I36">
-        <v>0.07111728902873259</v>
+        <v>0.03413965071694448</v>
       </c>
       <c r="J36">
-        <v>0.08494274726952739</v>
+        <v>0.04647326927283759</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.91861833333333</v>
+        <v>0.399603</v>
       </c>
       <c r="N36">
-        <v>35.755855</v>
+        <v>1.198809</v>
       </c>
       <c r="O36">
-        <v>0.3314900882453166</v>
+        <v>0.01317612702205471</v>
       </c>
       <c r="P36">
-        <v>0.4039565236808497</v>
+        <v>0.01825200624400283</v>
       </c>
       <c r="Q36">
-        <v>42.39019498033888</v>
+        <v>0.275733262854</v>
       </c>
       <c r="R36">
-        <v>381.51175482305</v>
+        <v>2.481599365686</v>
       </c>
       <c r="S36">
-        <v>0.02357467641590225</v>
+        <v>0.0004498283743350415</v>
       </c>
       <c r="T36">
-        <v>0.03431317689889927</v>
+        <v>0.0008482304009470565</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.556636666666666</v>
+        <v>0.6900180000000001</v>
       </c>
       <c r="H37">
-        <v>10.66991</v>
+        <v>2.070054</v>
       </c>
       <c r="I37">
-        <v>0.07111728902873259</v>
+        <v>0.03413965071694448</v>
       </c>
       <c r="J37">
-        <v>0.08494274726952739</v>
+        <v>0.04647326927283759</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.1266366666666666</v>
+        <v>0.1455373333333333</v>
       </c>
       <c r="N37">
-        <v>0.37991</v>
+        <v>0.436612</v>
       </c>
       <c r="O37">
-        <v>0.003522119647964738</v>
+        <v>0.004798808793855693</v>
       </c>
       <c r="P37">
-        <v>0.004292083713606949</v>
+        <v>0.00664746840423</v>
       </c>
       <c r="Q37">
-        <v>0.450400612011111</v>
+        <v>0.100423379672</v>
       </c>
       <c r="R37">
-        <v>4.0536055081</v>
+        <v>0.9038104170480001</v>
       </c>
       <c r="S37">
-        <v>0.0002504836009980862</v>
+        <v>0.000163829656079635</v>
       </c>
       <c r="T37">
-        <v>0.0003645813821445696</v>
+        <v>0.0003089295891324608</v>
       </c>
     </row>
   </sheetData>
